--- a/ZSS/resources/Purva Vihar/FY2014-15/07-July-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/07-July-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -590,13 +590,16 @@
     <t>राजगुरु जी. एच.</t>
   </si>
   <si>
-    <t xml:space="preserve">      /07/14</t>
-  </si>
-  <si>
     <t>Maintenance Charges for Month of July 2014.</t>
   </si>
   <si>
     <t>Till April 2015</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1020,6 +1023,42 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1069,24 +1108,6 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1115,24 +1136,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1189,62 +1192,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="13">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" name="Penalty" dataDxfId="30" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="29" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="28" totalsRowDxfId="0">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="21"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
+    <tableColumn id="8" name="Date" dataDxfId="27"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
-  <tableColumns count="12">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="6" name="Penalty" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="17" totalsRowDxfId="6">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="4"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
+    <tableColumn id="8" name="Date" dataDxfId="16"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
+    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1538,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1564,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1578,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1587,7 +1592,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1600,7 +1605,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1614,9 +1619,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1624,7 +1629,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>80</v>
       </c>
@@ -1638,7 +1643,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1675,8 +1680,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1703,12 +1711,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>83</v>
+      <c r="I9" s="19">
+        <v>41834</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1735,12 +1746,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>83</v>
+      <c r="I10" s="19">
+        <v>41837</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1767,12 +1781,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>83</v>
+      <c r="I11" s="19">
+        <v>41837</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1799,12 +1816,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>83</v>
+      <c r="I12" s="19">
+        <v>41834</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1831,13 +1851,16 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>83</v>
+      <c r="I13" s="19">
+        <v>41834</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1864,12 +1887,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>83</v>
+      <c r="I14" s="19">
+        <v>41834</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1896,15 +1922,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>83</v>
+      <c r="I15" s="19">
+        <v>41821</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1931,12 +1960,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>83</v>
+      <c r="I16" s="19">
+        <v>41839</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1963,12 +1995,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>83</v>
+      <c r="I17" s="19">
+        <v>41834</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -1995,12 +2030,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>83</v>
+      <c r="I18" s="19">
+        <v>41839</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2027,12 +2065,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>83</v>
+      <c r="I19" s="19">
+        <v>41834</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2040,14 +2081,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2057,14 +2098,17 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>250</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>83</v>
+        <v>230</v>
+      </c>
+      <c r="I20" s="19">
+        <v>41830</v>
       </c>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2091,15 +2135,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>83</v>
+      <c r="I21" s="19">
+        <v>41821</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2126,12 +2173,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>83</v>
+      <c r="I22" s="19">
+        <v>41834</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2158,12 +2208,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>83</v>
+      <c r="I23" s="19">
+        <v>41834</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2190,15 +2243,18 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>83</v>
+      <c r="I24" s="19">
+        <v>41821</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2225,12 +2281,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>83</v>
+      <c r="I25" s="19">
+        <v>41851</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2257,12 +2316,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>83</v>
+      <c r="I26" s="19">
+        <v>41821</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2272,7 +2334,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>6470</v>
+        <v>6450</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2280,13 +2342,13 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>10770</v>
+        <v>10750</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2364,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2316,7 +2378,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2336,7 +2398,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2380,10 +2442,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H26"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2464,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +2478,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2492,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2443,7 +2505,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2457,9 +2519,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2467,7 +2529,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2481,7 +2543,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2518,8 +2580,11 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2546,12 +2611,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>83</v>
+      <c r="I9" s="19">
+        <v>41839</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2578,12 +2646,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>83</v>
+      <c r="I10" s="19">
+        <v>41834</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2610,12 +2681,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>83</v>
+      <c r="I11" s="19">
+        <v>41834</v>
       </c>
       <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2642,12 +2716,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>83</v>
+      <c r="I12" s="19">
+        <v>41834</v>
       </c>
       <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2674,12 +2751,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>410</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>83</v>
+      <c r="I13" s="19">
+        <v>41834</v>
       </c>
       <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2706,12 +2786,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>83</v>
+      <c r="I14" s="19">
+        <v>41839</v>
       </c>
       <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2738,12 +2821,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>83</v>
+      <c r="I15" s="19">
+        <v>41839</v>
       </c>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2770,12 +2856,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>83</v>
+      <c r="I16" s="19">
+        <v>41836</v>
       </c>
       <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2802,12 +2891,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>83</v>
+      <c r="I17" s="19">
+        <v>41834</v>
       </c>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2834,12 +2926,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>83</v>
+      <c r="I18" s="19">
+        <v>41839</v>
       </c>
       <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2866,12 +2961,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>83</v>
+      <c r="I19" s="19">
+        <v>41834</v>
       </c>
       <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2898,14 +2996,17 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>83</v>
+      <c r="I20" s="19">
+        <v>41834</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="P20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -2932,16 +3033,19 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2300</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>83</v>
+      <c r="I21" s="19">
+        <v>41839</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -2968,12 +3072,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>83</v>
+      <c r="I22" s="19">
+        <v>41839</v>
       </c>
       <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3000,12 +3107,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>83</v>
+      <c r="I23" s="19">
+        <v>41839</v>
       </c>
       <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3032,12 +3142,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>550</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>83</v>
+      <c r="I24" s="19">
+        <v>41834</v>
       </c>
       <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3064,12 +3177,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>83</v>
+      <c r="I25" s="19">
+        <v>41834</v>
       </c>
       <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3096,12 +3212,15 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>83</v>
+      <c r="I26" s="19">
+        <v>41834</v>
       </c>
       <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3244,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3141,7 +3260,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3155,7 +3274,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3175,7 +3294,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>

--- a/ZSS/resources/Purva Vihar/FY2014-15/07-July-2014.xlsx
+++ b/ZSS/resources/Purva Vihar/FY2014-15/07-July-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\PurvaVihar\ACP_PV\ZSS\resources\Purva Vihar\FY2014-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arathod\Desktop\Purva Vihar\FY2014-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
   <si>
     <t>Name of Flat Holder</t>
   </si>
@@ -590,16 +590,13 @@
     <t>राजगुरु जी. एच.</t>
   </si>
   <si>
+    <t xml:space="preserve">      /07/14</t>
+  </si>
+  <si>
     <t>Maintenance Charges for Month of July 2014.</t>
   </si>
   <si>
     <t>Till April 2015</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Cheque</t>
   </si>
 </sst>
 </file>
@@ -1023,42 +1020,6 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1108,6 +1069,24 @@
       <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1136,6 +1115,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_ [$रु-44E]\ * #,##0_ ;_ [$रु-44E]\ * \-#,##0_ ;_ [$रु-44E]\ * &quot;-&quot;_ ;_ @_ "/>
@@ -1192,64 +1189,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="36">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AWing" displayName="AWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="36">
+  <tableColumns count="12">
     <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="35"/>
     <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="3">
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" dataDxfId="30" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="29" totalsRowDxfId="1"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="28" totalsRowDxfId="0">
+    <tableColumn id="6" name="Penalty" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="27"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="26"/>
+    <tableColumn id="8" name="Date" dataDxfId="21"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="20"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:M27" totalsRowCount="1" headerRowDxfId="25">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="24"/>
-    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BWing" displayName="BWing" ref="A8:L27" totalsRowCount="1" headerRowDxfId="19">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Flat No." totalsRowLabel="Total" dataDxfId="18"/>
+    <tableColumn id="2" name="Name of Flat Holder" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Month's Balance" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="Current Month Balance" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="Total Balance" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>BWing[[#This Row],[Current Month Balance]]+BWing[[#This Row],[Last Month''s Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Penalty" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="11" name="Remaining Balance" dataDxfId="17" totalsRowDxfId="6">
+    <tableColumn id="6" name="Penalty" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="Received Maint. Charge" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="Remaining Balance" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Date" dataDxfId="16"/>
-    <tableColumn id="13" name="Receipt No." dataDxfId="15"/>
+    <tableColumn id="8" name="Date" dataDxfId="4"/>
+    <tableColumn id="13" name="Receipt No." dataDxfId="3"/>
     <tableColumn id="9" name="Payer's Sign"/>
     <tableColumn id="10" name="थकबाकी न देण्याचे कारण "/>
-    <tableColumn id="12" name="Mode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="B4:E14" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="B4:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
     <tableColumn id="3" name="Transaction Type" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(103,Table1[Transaction Type])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="2" name="Amount" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Additional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1543,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1559,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1573,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1587,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -1605,7 +1600,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
@@ -1619,9 +1614,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -1629,7 +1624,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>80</v>
       </c>
@@ -1643,7 +1638,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1680,11 +1675,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1711,15 +1703,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>3700</v>
       </c>
-      <c r="I9" s="19">
-        <v>41834</v>
+      <c r="I9" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1746,15 +1735,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>350</v>
       </c>
-      <c r="I10" s="19">
-        <v>41837</v>
+      <c r="I10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1781,15 +1767,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>80</v>
       </c>
-      <c r="I11" s="19">
-        <v>41837</v>
+      <c r="I11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1816,15 +1799,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
-        <v>41834</v>
+      <c r="I12" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1851,16 +1831,13 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
-        <v>41834</v>
+      <c r="I13" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="22"/>
       <c r="L13" s="23"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1887,15 +1864,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
-        <v>41834</v>
+      <c r="I14" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -1922,18 +1896,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I15" s="19">
-        <v>41821</v>
+      <c r="I15" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="22"/>
       <c r="L15" t="s">
         <v>78</v>
       </c>
-      <c r="M15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -1960,15 +1931,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41839</v>
+      <c r="I16" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1995,15 +1963,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
-        <v>41834</v>
+      <c r="I17" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2030,15 +1995,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41839</v>
+      <c r="I18" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>23</v>
       </c>
@@ -2065,15 +2027,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41834</v>
+      <c r="I19" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>24</v>
       </c>
@@ -2081,14 +2040,14 @@
         <v>65</v>
       </c>
       <c r="C20" s="8">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="D20" s="8">
         <v>200</v>
       </c>
       <c r="E20" s="8">
         <f>AWing[[#This Row],[Last Month''s Balance]]+AWing[[#This Row],[Current Month Balance]]</f>
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -2098,17 +2057,14 @@
       </c>
       <c r="H20" s="8">
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
-        <v>230</v>
-      </c>
-      <c r="I20" s="19">
-        <v>41830</v>
+        <v>250</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>25</v>
       </c>
@@ -2135,18 +2091,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I21" s="19">
-        <v>41821</v>
+      <c r="I21" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="M21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>26</v>
       </c>
@@ -2173,15 +2126,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I22" s="19">
-        <v>41834</v>
+      <c r="I22" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>31</v>
       </c>
@@ -2208,15 +2158,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>7360</v>
       </c>
-      <c r="I23" s="19">
-        <v>41834</v>
+      <c r="I23" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>32</v>
       </c>
@@ -2243,18 +2190,15 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-1600</v>
       </c>
-      <c r="I24" s="19">
-        <v>41821</v>
+      <c r="I24" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J24" s="22"/>
       <c r="L24" t="s">
         <v>78</v>
       </c>
-      <c r="M24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>33</v>
       </c>
@@ -2281,15 +2225,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>310</v>
       </c>
-      <c r="I25" s="19">
-        <v>41851</v>
+      <c r="I25" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>34</v>
       </c>
@@ -2316,15 +2257,12 @@
         <f>AWing[[#This Row],[Total Balance]]+AWing[[#This Row],[Penalty]]-AWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41821</v>
+      <c r="I26" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2272,7 @@
       </c>
       <c r="C27" s="8">
         <f>SUBTOTAL(109,AWing[Last Month''s Balance])</f>
-        <v>6450</v>
+        <v>6470</v>
       </c>
       <c r="D27" s="8">
         <f>SUBTOTAL(109,AWing[Current Month Balance])</f>
@@ -2342,13 +2280,13 @@
       </c>
       <c r="E27" s="8">
         <f>SUBTOTAL(109,AWing[Total Balance])</f>
-        <v>10750</v>
+        <v>10770</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2302,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -2378,7 +2316,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -2398,7 +2336,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -2442,10 +2380,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2402,7 @@
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
@@ -2478,7 +2416,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2430,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="30" t="s">
         <v>36</v>
@@ -2505,7 +2443,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
@@ -2519,9 +2457,9 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -2529,7 +2467,7 @@
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
@@ -2543,7 +2481,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2580,11 +2518,8 @@
       <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -2611,15 +2546,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>290</v>
       </c>
-      <c r="I9" s="19">
-        <v>41839</v>
+      <c r="I9" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -2646,15 +2578,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>10</v>
       </c>
-      <c r="I10" s="19">
-        <v>41834</v>
+      <c r="I10" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="22"/>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -2681,15 +2610,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>40</v>
       </c>
-      <c r="I11" s="19">
-        <v>41834</v>
+      <c r="I11" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -2716,15 +2642,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-100</v>
       </c>
-      <c r="I12" s="19">
-        <v>41834</v>
+      <c r="I12" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2751,15 +2674,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>410</v>
       </c>
-      <c r="I13" s="19">
-        <v>41834</v>
+      <c r="I13" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2786,15 +2706,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>2130</v>
       </c>
-      <c r="I14" s="19">
-        <v>41839</v>
+      <c r="I14" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J14" s="22"/>
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2821,15 +2738,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
-        <v>41839</v>
+      <c r="I15" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="22"/>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2856,15 +2770,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
-        <v>41836</v>
+      <c r="I16" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
@@ -2891,15 +2802,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>30</v>
       </c>
-      <c r="I17" s="19">
-        <v>41834</v>
+      <c r="I17" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J17" s="22"/>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
@@ -2926,15 +2834,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
-        <v>41839</v>
+      <c r="I18" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J18" s="22"/>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
@@ -2961,15 +2866,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="19">
-        <v>41834</v>
+      <c r="I19" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
@@ -2996,17 +2898,14 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>720</v>
       </c>
-      <c r="I20" s="19">
-        <v>41834</v>
+      <c r="I20" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>27</v>
       </c>
@@ -3033,19 +2932,16 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>-2300</v>
       </c>
-      <c r="I21" s="19">
-        <v>41839</v>
+      <c r="I21" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J21" s="22"/>
       <c r="L21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3072,15 +2968,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
-        <v>41839</v>
+      <c r="I22" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J22" s="22"/>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3107,15 +3000,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="19">
-        <v>41839</v>
+      <c r="I23" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J23" s="22"/>
-      <c r="M23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3142,15 +3032,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>550</v>
       </c>
-      <c r="I24" s="19">
-        <v>41834</v>
+      <c r="I24" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="M24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3177,15 +3064,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
-        <v>41834</v>
+      <c r="I25" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J25" s="22"/>
-      <c r="M25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>30</v>
       </c>
@@ -3212,15 +3096,12 @@
         <f>BWing[[#This Row],[Total Balance]]+BWing[[#This Row],[Penalty]]-BWing[[#This Row],[Received Maint. Charge]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
-        <v>41834</v>
+      <c r="I26" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="J26" s="22"/>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +3125,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>37</v>
       </c>
@@ -3260,7 +3141,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3274,7 +3155,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -3294,7 +3175,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
